--- a/scripts/対応表.xlsx
+++ b/scripts/対応表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iojdw\GitHub\ThomBrowne\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584DD585-3CDC-4084-8FCD-1C3F4AE500D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E085C16-865D-4947-BBD5-53182FE6AC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -506,13 +506,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>重複フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>チョウフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>布川が「なんか行きました？」と言う</t>
     <rPh sb="0" eb="2">
       <t>ヌノカワ</t>
@@ -522,6 +515,26 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複(解答)</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複(問題)</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -566,13 +579,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -859,43 +885,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="4.9140625" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="33" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -904,19 +932,23 @@
         <v>7</v>
       </c>
       <c r="D2" t="str">
+        <f>IF(COUNTIF($B$1:C1,B2),"1","")</f>
+        <v/>
+      </c>
+      <c r="E2" t="str">
         <f>IF(COUNTIF($C$1:C1,C2),"1","")</f>
         <v/>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
         <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -925,20 +957,23 @@
         <v>8</v>
       </c>
       <c r="D3" t="str">
+        <f>IF(COUNTIF($B$1:C2,B3),"1","")</f>
+        <v/>
+      </c>
+      <c r="E3" t="str">
         <f>IF(COUNTIF($C$1:C2,C3),"1","")</f>
         <v/>
       </c>
-      <c r="E3">
-        <f>IF(D3&lt;&gt;"1",E2+1, E2)</f>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -947,17 +982,20 @@
         <v>9</v>
       </c>
       <c r="D4" t="str">
+        <f>IF(COUNTIF($B$1:C3,B4),"1","")</f>
+        <v/>
+      </c>
+      <c r="E4" t="str">
         <f>IF(COUNTIF($C$1:C3,C4),"1","")</f>
         <v/>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E26" si="0">IF(D4&lt;&gt;"1",E3+1, E3)</f>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -966,17 +1004,20 @@
         <v>10</v>
       </c>
       <c r="D5" t="str">
+        <f>IF(COUNTIF($B$1:C4,B5),"1","")</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
         <f>IF(COUNTIF($C$1:C4,C5),"1","")</f>
         <v/>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -985,17 +1026,20 @@
         <v>6</v>
       </c>
       <c r="D6" t="str">
+        <f>IF(COUNTIF($B$1:C5,B6),"1","")</f>
+        <v/>
+      </c>
+      <c r="E6" t="str">
         <f>IF(COUNTIF($C$1:C5,C6),"1","")</f>
         <v/>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1004,17 +1048,20 @@
         <v>16</v>
       </c>
       <c r="D7" t="str">
+        <f>IF(COUNTIF($B$1:C6,B7),"1","")</f>
+        <v/>
+      </c>
+      <c r="E7" t="str">
         <f>IF(COUNTIF($C$1:C6,C7),"1","")</f>
         <v/>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1023,17 +1070,20 @@
         <v>18</v>
       </c>
       <c r="D8" t="str">
+        <f>IF(COUNTIF($B$1:C7,B8),"1","")</f>
+        <v/>
+      </c>
+      <c r="E8" t="str">
         <f>IF(COUNTIF($C$1:C7,C8),"1","")</f>
         <v/>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1042,17 +1092,20 @@
         <v>20</v>
       </c>
       <c r="D9" t="str">
+        <f>IF(COUNTIF($B$1:C8,B9),"1","")</f>
+        <v/>
+      </c>
+      <c r="E9" t="str">
         <f>IF(COUNTIF($C$1:C8,C9),"1","")</f>
         <v/>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1061,17 +1114,20 @@
         <v>22</v>
       </c>
       <c r="D10" t="str">
+        <f>IF(COUNTIF($B$1:C9,B10),"1","")</f>
+        <v/>
+      </c>
+      <c r="E10" t="str">
         <f>IF(COUNTIF($C$1:C9,C10),"1","")</f>
         <v/>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1080,17 +1136,20 @@
         <v>24</v>
       </c>
       <c r="D11" t="str">
+        <f>IF(COUNTIF($B$1:C10,B11),"1","")</f>
+        <v/>
+      </c>
+      <c r="E11" t="str">
         <f>IF(COUNTIF($C$1:C10,C11),"1","")</f>
         <v/>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1099,17 +1158,20 @@
         <v>26</v>
       </c>
       <c r="D12" t="str">
+        <f>IF(COUNTIF($B$1:C11,B12),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
         <f>IF(COUNTIF($C$1:C11,C12),"1","")</f>
         <v/>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -1118,17 +1180,20 @@
         <v>28</v>
       </c>
       <c r="D13" t="str">
+        <f>IF(COUNTIF($B$1:C12,B13),"1","")</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
         <f>IF(COUNTIF($C$1:C12,C13),"1","")</f>
         <v/>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+      <c r="F13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -1137,17 +1202,20 @@
         <v>10</v>
       </c>
       <c r="D14" t="str">
+        <f>IF(COUNTIF($B$1:C13,B14),"1","")</f>
+        <v/>
+      </c>
+      <c r="E14" t="str">
         <f>IF(COUNTIF($C$1:C13,C14),"1","")</f>
         <v>1</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1156,17 +1224,20 @@
         <v>16</v>
       </c>
       <c r="D15" t="str">
+        <f>IF(COUNTIF($B$1:C14,B15),"1","")</f>
+        <v/>
+      </c>
+      <c r="E15" t="str">
         <f>IF(COUNTIF($C$1:C14,C15),"1","")</f>
         <v>1</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -1175,17 +1246,20 @@
         <v>32</v>
       </c>
       <c r="D16" t="str">
+        <f>IF(COUNTIF($B$1:C15,B16),"1","")</f>
+        <v/>
+      </c>
+      <c r="E16" t="str">
         <f>IF(COUNTIF($C$1:C15,C16),"1","")</f>
         <v/>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -1194,17 +1268,20 @@
         <v>34</v>
       </c>
       <c r="D17" t="str">
+        <f>IF(COUNTIF($B$1:C16,B17),"1","")</f>
+        <v/>
+      </c>
+      <c r="E17" t="str">
         <f>IF(COUNTIF($C$1:C16,C17),"1","")</f>
         <v/>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -1213,17 +1290,20 @@
         <v>36</v>
       </c>
       <c r="D18" t="str">
+        <f>IF(COUNTIF($B$1:C17,B18),"1","")</f>
+        <v/>
+      </c>
+      <c r="E18" t="str">
         <f>IF(COUNTIF($C$1:C17,C18),"1","")</f>
         <v/>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -1232,20 +1312,23 @@
         <v>38</v>
       </c>
       <c r="D19" t="str">
+        <f>IF(COUNTIF($B$1:C18,B19),"1","")</f>
+        <v/>
+      </c>
+      <c r="E19" t="str">
         <f>IF(COUNTIF($C$1:C18,C19),"1","")</f>
         <v/>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -1254,17 +1337,20 @@
         <v>20</v>
       </c>
       <c r="D20" t="str">
+        <f>IF(COUNTIF($B$1:C19,B20),"1","")</f>
+        <v/>
+      </c>
+      <c r="E20" t="str">
         <f>IF(COUNTIF($C$1:C19,C20),"1","")</f>
         <v>1</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -1273,17 +1359,20 @@
         <v>41</v>
       </c>
       <c r="D21" t="str">
+        <f>IF(COUNTIF($B$1:C20,B21),"1","")</f>
+        <v/>
+      </c>
+      <c r="E21" t="str">
         <f>IF(COUNTIF($C$1:C20,C21),"1","")</f>
         <v/>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -1292,17 +1381,20 @@
         <v>42</v>
       </c>
       <c r="D22" t="str">
+        <f>IF(COUNTIF($B$1:C21,B22),"1","")</f>
+        <v/>
+      </c>
+      <c r="E22" t="str">
         <f>IF(COUNTIF($C$1:C21,C22),"1","")</f>
         <v/>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
@@ -1311,20 +1403,23 @@
         <v>54</v>
       </c>
       <c r="D23" t="str">
+        <f>IF(COUNTIF($B$1:C22,B23),"1","")</f>
+        <v/>
+      </c>
+      <c r="E23" t="str">
         <f>IF(COUNTIF($C$1:C22,C23),"1","")</f>
         <v/>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -1333,20 +1428,23 @@
         <v>48</v>
       </c>
       <c r="D24" t="str">
+        <f>IF(COUNTIF($B$1:C23,B24),"1","")</f>
+        <v/>
+      </c>
+      <c r="E24" t="str">
         <f>IF(COUNTIF($C$1:C23,C24),"1","")</f>
         <v/>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -1355,17 +1453,20 @@
         <v>51</v>
       </c>
       <c r="D25" t="str">
+        <f>IF(COUNTIF($B$1:C24,B25),"1","")</f>
+        <v/>
+      </c>
+      <c r="E25" t="str">
         <f>IF(COUNTIF($C$1:C24,C25),"1","")</f>
         <v/>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
@@ -1374,19 +1475,27 @@
         <v>53</v>
       </c>
       <c r="D26" t="str">
+        <f>IF(COUNTIF($B$1:C25,B26),"1","")</f>
+        <v/>
+      </c>
+      <c r="E26" t="str">
         <f>IF(COUNTIF($C$1:C25,C26),"1","")</f>
         <v/>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="F26">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E1:E100">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"1"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1:D100">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"1"</formula>
